--- a/SeedList.xlsx
+++ b/SeedList.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Caravan Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Corrupted Boss Drops" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="2005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365" uniqueCount="2564">
   <si>
     <t>Item</t>
   </si>
@@ -6029,6 +6030,1683 @@
   </si>
   <si>
     <t>6SB2FC5</t>
+  </si>
+  <si>
+    <t>Loot ID</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Basthet</t>
+  </si>
+  <si>
+    <t>belphyor</t>
+  </si>
+  <si>
+    <t>belphyorquest</t>
+  </si>
+  <si>
+    <t>burninghand</t>
+  </si>
+  <si>
+    <t>dreadhalfman</t>
+  </si>
+  <si>
+    <t>Dryad_a</t>
+  </si>
+  <si>
+    <t>Dryad_b</t>
+  </si>
+  <si>
+    <t>elvenarmory</t>
+  </si>
+  <si>
+    <t>elvenarmoryplus</t>
+  </si>
+  <si>
+    <t>Faeborg</t>
+  </si>
+  <si>
+    <t>goblintown</t>
+  </si>
+  <si>
+    <t>harpychest</t>
+  </si>
+  <si>
+    <t>harpyfight</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>Ignidoh</t>
+  </si>
+  <si>
+    <t>khazakdhum</t>
+  </si>
+  <si>
+    <t>kingrat</t>
+  </si>
+  <si>
+    <t>Mansionright</t>
+  </si>
+  <si>
+    <t>minotaurcave</t>
+  </si>
+  <si>
+    <t>Mortis</t>
+  </si>
+  <si>
+    <t>sahtikraken</t>
+  </si>
+  <si>
+    <t>sahtikrakenmjolmir</t>
+  </si>
+  <si>
+    <t>sahtirustkingtreasure</t>
+  </si>
+  <si>
+    <t>spiderqueen</t>
+  </si>
+  <si>
+    <t>Tulah</t>
+  </si>
+  <si>
+    <t>tyrant</t>
+  </si>
+  <si>
+    <t>tyrantbeavers</t>
+  </si>
+  <si>
+    <t>tyrantchampy</t>
+  </si>
+  <si>
+    <t>tyrantchompy</t>
+  </si>
+  <si>
+    <t>tyrantchumpy</t>
+  </si>
+  <si>
+    <t>upripreboss</t>
+  </si>
+  <si>
+    <t>Ylmer</t>
+  </si>
+  <si>
+    <t>yogger</t>
+  </si>
+  <si>
+    <t>Durandal</t>
+  </si>
+  <si>
+    <t>Holy Rune</t>
+  </si>
+  <si>
+    <t>The Juggernaut</t>
+  </si>
+  <si>
+    <t>Belphyor's Pipe</t>
+  </si>
+  <si>
+    <t>Searing Dagger</t>
+  </si>
+  <si>
+    <t>Flamy</t>
+  </si>
+  <si>
+    <t>Hellblade</t>
+  </si>
+  <si>
+    <t>Imp Statuette</t>
+  </si>
+  <si>
+    <t>Ring of Fire</t>
+  </si>
+  <si>
+    <t>Rudder</t>
+  </si>
+  <si>
+    <t>Sextant</t>
+  </si>
+  <si>
+    <t>Tiny Cannon</t>
+  </si>
+  <si>
+    <t>Dryad Mask</t>
+  </si>
+  <si>
+    <t>Forest Crown</t>
+  </si>
+  <si>
+    <t>Ice Orb</t>
+  </si>
+  <si>
+    <t>Icebreaker</t>
+  </si>
+  <si>
+    <t>Paladin Gauntlets</t>
+  </si>
+  <si>
+    <t>Faeborg Scale</t>
+  </si>
+  <si>
+    <t>Freezing Ink</t>
+  </si>
+  <si>
+    <t>Frozen Tear</t>
+  </si>
+  <si>
+    <t>Goblin Amulet</t>
+  </si>
+  <si>
+    <t>Iron Kanabo</t>
+  </si>
+  <si>
+    <t>Raider Slicer</t>
+  </si>
+  <si>
+    <t>Stormcaller Feather</t>
+  </si>
+  <si>
+    <t>Tempest</t>
+  </si>
+  <si>
+    <t>Matriarch's Claw</t>
+  </si>
+  <si>
+    <t>Hydra Egg</t>
+  </si>
+  <si>
+    <t>Storm Tiara</t>
+  </si>
+  <si>
+    <t>The Polluter</t>
+  </si>
+  <si>
+    <t>Titan Gauntlets</t>
+  </si>
+  <si>
+    <t>Ignidoh's Core</t>
+  </si>
+  <si>
+    <t>Lava Crystal</t>
+  </si>
+  <si>
+    <t>Volcanic Axe</t>
+  </si>
+  <si>
+    <t>Bronze Gear</t>
+  </si>
+  <si>
+    <t>Lava Orb</t>
+  </si>
+  <si>
+    <t>The Wall</t>
+  </si>
+  <si>
+    <t>Black Deck</t>
+  </si>
+  <si>
+    <t>Frozen Heirloom</t>
+  </si>
+  <si>
+    <t>Neverfrost</t>
+  </si>
+  <si>
+    <t>Cold Rune</t>
+  </si>
+  <si>
+    <t>Dracomancer Staff</t>
+  </si>
+  <si>
+    <t>Edge of Fury</t>
+  </si>
+  <si>
+    <t>Minotaur Horn</t>
+  </si>
+  <si>
+    <t>Red Cape</t>
+  </si>
+  <si>
+    <t>Architect's Ring</t>
+  </si>
+  <si>
+    <t>Burial Mask</t>
+  </si>
+  <si>
+    <t>Scarab Shield</t>
+  </si>
+  <si>
+    <t>Undeath Ichor</t>
+  </si>
+  <si>
+    <t>Kraken Sushi</t>
+  </si>
+  <si>
+    <t>Purple Tentacle</t>
+  </si>
+  <si>
+    <t>Storm In A Bottle</t>
+  </si>
+  <si>
+    <t>Mjolnir</t>
+  </si>
+  <si>
+    <t>Jolly Roger</t>
+  </si>
+  <si>
+    <t>Pirate Hat</t>
+  </si>
+  <si>
+    <t>Rusty Hook</t>
+  </si>
+  <si>
+    <t>Free Lover</t>
+  </si>
+  <si>
+    <t>Spider Queen Eye</t>
+  </si>
+  <si>
+    <t>Venom Fang</t>
+  </si>
+  <si>
+    <t>Frost Axe</t>
+  </si>
+  <si>
+    <t>Tyrant Necklace</t>
+  </si>
+  <si>
+    <t>Champy</t>
+  </si>
+  <si>
+    <t>Chompy</t>
+  </si>
+  <si>
+    <t>Chumpy</t>
+  </si>
+  <si>
+    <t>Dwarven Helmet</t>
+  </si>
+  <si>
+    <t>Machine Oil</t>
+  </si>
+  <si>
+    <t>Shield of Thorns</t>
+  </si>
+  <si>
+    <t>Yggdrasil Root</t>
+  </si>
+  <si>
+    <t>Ylmer's Branch</t>
+  </si>
+  <si>
+    <t>Wolfskin Cloak</t>
+  </si>
+  <si>
+    <t>Yogger's Cleaver</t>
+  </si>
+  <si>
+    <t>QG9SSM8</t>
+  </si>
+  <si>
+    <t>4A94PSN</t>
+  </si>
+  <si>
+    <t>XF5828Z</t>
+  </si>
+  <si>
+    <t>54RRTRE</t>
+  </si>
+  <si>
+    <t>ZSXYDN4</t>
+  </si>
+  <si>
+    <t>FF2RQWH</t>
+  </si>
+  <si>
+    <t>BBM4RYK</t>
+  </si>
+  <si>
+    <t>99ABQKS</t>
+  </si>
+  <si>
+    <t>ARH3K4T</t>
+  </si>
+  <si>
+    <t>WM9FYTP</t>
+  </si>
+  <si>
+    <t>P2T2AR6</t>
+  </si>
+  <si>
+    <t>6KHPZ2P</t>
+  </si>
+  <si>
+    <t>T8K9CX6</t>
+  </si>
+  <si>
+    <t>SAAF6Q2</t>
+  </si>
+  <si>
+    <t>54DMBQ2</t>
+  </si>
+  <si>
+    <t>TE2X98X</t>
+  </si>
+  <si>
+    <t>TF948W5</t>
+  </si>
+  <si>
+    <t>PX3PF3X</t>
+  </si>
+  <si>
+    <t>D6WDK94</t>
+  </si>
+  <si>
+    <t>2SATRYH</t>
+  </si>
+  <si>
+    <t>CD6WM53</t>
+  </si>
+  <si>
+    <t>CGB3BPW</t>
+  </si>
+  <si>
+    <t>FKH8ZQB</t>
+  </si>
+  <si>
+    <t>SMRQGK6</t>
+  </si>
+  <si>
+    <t>6X38Y6P</t>
+  </si>
+  <si>
+    <t>Z4CMPM3</t>
+  </si>
+  <si>
+    <t>X9S5FFZ</t>
+  </si>
+  <si>
+    <t>QDGNWA5</t>
+  </si>
+  <si>
+    <t>KCDFNDY</t>
+  </si>
+  <si>
+    <t>NFZHSCA</t>
+  </si>
+  <si>
+    <t>ZGWQSQQ</t>
+  </si>
+  <si>
+    <t>2529QEX</t>
+  </si>
+  <si>
+    <t>43YYFAC</t>
+  </si>
+  <si>
+    <t>B3WR98F</t>
+  </si>
+  <si>
+    <t>6EQKT2W</t>
+  </si>
+  <si>
+    <t>MR9MP8B</t>
+  </si>
+  <si>
+    <t>H3TG33Q</t>
+  </si>
+  <si>
+    <t>PAW6PER</t>
+  </si>
+  <si>
+    <t>PSZXTGG</t>
+  </si>
+  <si>
+    <t>KBPMGBM</t>
+  </si>
+  <si>
+    <t>TG3KZTH</t>
+  </si>
+  <si>
+    <t>ZT2CDF3</t>
+  </si>
+  <si>
+    <t>8WRC9Q3</t>
+  </si>
+  <si>
+    <t>4EEFPFC</t>
+  </si>
+  <si>
+    <t>GWYAMBA</t>
+  </si>
+  <si>
+    <t>PYRCGY3</t>
+  </si>
+  <si>
+    <t>GRAMXHM</t>
+  </si>
+  <si>
+    <t>CSFWSXD</t>
+  </si>
+  <si>
+    <t>9KH9TDN</t>
+  </si>
+  <si>
+    <t>6KBFKSX</t>
+  </si>
+  <si>
+    <t>RCYFWHQ</t>
+  </si>
+  <si>
+    <t>KW4M9CF</t>
+  </si>
+  <si>
+    <t>CRDC8XC</t>
+  </si>
+  <si>
+    <t>YNBPD9A</t>
+  </si>
+  <si>
+    <t>QFFYSNR</t>
+  </si>
+  <si>
+    <t>6B54N3A</t>
+  </si>
+  <si>
+    <t>EDADRDS</t>
+  </si>
+  <si>
+    <t>PFFBK2B</t>
+  </si>
+  <si>
+    <t>BS36QGR</t>
+  </si>
+  <si>
+    <t>QXYWDN9</t>
+  </si>
+  <si>
+    <t>E8PFHW6</t>
+  </si>
+  <si>
+    <t>4C8E3SZ</t>
+  </si>
+  <si>
+    <t>NWASHY4</t>
+  </si>
+  <si>
+    <t>GMAR2KQ</t>
+  </si>
+  <si>
+    <t>G96WFQT</t>
+  </si>
+  <si>
+    <t>B6ZE96B</t>
+  </si>
+  <si>
+    <t>88XFPG8</t>
+  </si>
+  <si>
+    <t>DRFTZDT</t>
+  </si>
+  <si>
+    <t>NCH3DPK</t>
+  </si>
+  <si>
+    <t>YNCWRGB</t>
+  </si>
+  <si>
+    <t>Y3M998P</t>
+  </si>
+  <si>
+    <t>6W3GR8C</t>
+  </si>
+  <si>
+    <t>RFCYPMX</t>
+  </si>
+  <si>
+    <t>N5E3FBH</t>
+  </si>
+  <si>
+    <t>T45P25F</t>
+  </si>
+  <si>
+    <t>YN5P28K</t>
+  </si>
+  <si>
+    <t>Q9XBCB8</t>
+  </si>
+  <si>
+    <t>QRPNRHH</t>
+  </si>
+  <si>
+    <t>QDAEMY3</t>
+  </si>
+  <si>
+    <t>ZW2NKPD</t>
+  </si>
+  <si>
+    <t>3R26Y6Q</t>
+  </si>
+  <si>
+    <t>5Z3SYNP</t>
+  </si>
+  <si>
+    <t>RWNHBF8</t>
+  </si>
+  <si>
+    <t>QMZB54W</t>
+  </si>
+  <si>
+    <t>QMAHA2H</t>
+  </si>
+  <si>
+    <t>58YDQ8N</t>
+  </si>
+  <si>
+    <t>HPW2TWA</t>
+  </si>
+  <si>
+    <t>GAS6PGF</t>
+  </si>
+  <si>
+    <t>CMEE8C9</t>
+  </si>
+  <si>
+    <t>EX53KGF</t>
+  </si>
+  <si>
+    <t>XY93G83</t>
+  </si>
+  <si>
+    <t>DEP4H93</t>
+  </si>
+  <si>
+    <t>EABCD24</t>
+  </si>
+  <si>
+    <t>882FFTR</t>
+  </si>
+  <si>
+    <t>52QRW35</t>
+  </si>
+  <si>
+    <t>ME29XME</t>
+  </si>
+  <si>
+    <t>QFT2A53</t>
+  </si>
+  <si>
+    <t>B94WECY</t>
+  </si>
+  <si>
+    <t>XB8RZ2C</t>
+  </si>
+  <si>
+    <t>46458YM</t>
+  </si>
+  <si>
+    <t>NKMWMEF</t>
+  </si>
+  <si>
+    <t>QXZBY6T</t>
+  </si>
+  <si>
+    <t>8CQFRK4</t>
+  </si>
+  <si>
+    <t>P6XWX5K</t>
+  </si>
+  <si>
+    <t>YTXK2HS</t>
+  </si>
+  <si>
+    <t>RBSDX4R</t>
+  </si>
+  <si>
+    <t>WNHCFWM</t>
+  </si>
+  <si>
+    <t>CC9RANZ</t>
+  </si>
+  <si>
+    <t>M263TN2</t>
+  </si>
+  <si>
+    <t>CRADCCA</t>
+  </si>
+  <si>
+    <t>SNWNH8Y</t>
+  </si>
+  <si>
+    <t>BMK4FWR</t>
+  </si>
+  <si>
+    <t>ZMYRQPT</t>
+  </si>
+  <si>
+    <t>DZ6D6FK</t>
+  </si>
+  <si>
+    <t>NPRNBFC</t>
+  </si>
+  <si>
+    <t>DKQN3PE</t>
+  </si>
+  <si>
+    <t>9H6M4CQ</t>
+  </si>
+  <si>
+    <t>S8QN9YW</t>
+  </si>
+  <si>
+    <t>HT5YGP9</t>
+  </si>
+  <si>
+    <t>9Q843PM</t>
+  </si>
+  <si>
+    <t>RMRSA44</t>
+  </si>
+  <si>
+    <t>QKT64C5</t>
+  </si>
+  <si>
+    <t>PSAQF9Z</t>
+  </si>
+  <si>
+    <t>4SAENWM</t>
+  </si>
+  <si>
+    <t>FY8BWST</t>
+  </si>
+  <si>
+    <t>9GAE2CM</t>
+  </si>
+  <si>
+    <t>AQSWGQS</t>
+  </si>
+  <si>
+    <t>2BY286K</t>
+  </si>
+  <si>
+    <t>BD9QK3H</t>
+  </si>
+  <si>
+    <t>AFESATQ</t>
+  </si>
+  <si>
+    <t>TNX5MNR</t>
+  </si>
+  <si>
+    <t>EY3C4RY</t>
+  </si>
+  <si>
+    <t>X86YN8F</t>
+  </si>
+  <si>
+    <t>SET9QCS</t>
+  </si>
+  <si>
+    <t>MBFHAK2</t>
+  </si>
+  <si>
+    <t>5QHKGHQ</t>
+  </si>
+  <si>
+    <t>RATCBZD</t>
+  </si>
+  <si>
+    <t>63236GM</t>
+  </si>
+  <si>
+    <t>9GCTTFC</t>
+  </si>
+  <si>
+    <t>38AAH3W</t>
+  </si>
+  <si>
+    <t>YTQFGYZ</t>
+  </si>
+  <si>
+    <t>F69MNFT</t>
+  </si>
+  <si>
+    <t>B5EEB9E</t>
+  </si>
+  <si>
+    <t>PQ5BYWS</t>
+  </si>
+  <si>
+    <t>ZB5KB8E</t>
+  </si>
+  <si>
+    <t>9WRWQPR</t>
+  </si>
+  <si>
+    <t>2D8DYC4</t>
+  </si>
+  <si>
+    <t>Z8GWAF5</t>
+  </si>
+  <si>
+    <t>Z3HE29C</t>
+  </si>
+  <si>
+    <t>HESCBG5</t>
+  </si>
+  <si>
+    <t>W9PT9BH</t>
+  </si>
+  <si>
+    <t>XTP44C3</t>
+  </si>
+  <si>
+    <t>95WAH2E</t>
+  </si>
+  <si>
+    <t>PRN428N</t>
+  </si>
+  <si>
+    <t>QCWKAFB</t>
+  </si>
+  <si>
+    <t>QGNH239</t>
+  </si>
+  <si>
+    <t>28BT892</t>
+  </si>
+  <si>
+    <t>GHKMQTB</t>
+  </si>
+  <si>
+    <t>DXQH9AB</t>
+  </si>
+  <si>
+    <t>Q46RYGE</t>
+  </si>
+  <si>
+    <t>ABN34WA</t>
+  </si>
+  <si>
+    <t>RE8TAZ5</t>
+  </si>
+  <si>
+    <t>G6KXNFS</t>
+  </si>
+  <si>
+    <t>54CKP9A</t>
+  </si>
+  <si>
+    <t>8NX6AZM</t>
+  </si>
+  <si>
+    <t>ZMQBB94</t>
+  </si>
+  <si>
+    <t>XMY86HX</t>
+  </si>
+  <si>
+    <t>W5K2TK8</t>
+  </si>
+  <si>
+    <t>WWKHQGC</t>
+  </si>
+  <si>
+    <t>36HZ85M</t>
+  </si>
+  <si>
+    <t>3EDCZMT</t>
+  </si>
+  <si>
+    <t>SM22T5N</t>
+  </si>
+  <si>
+    <t>GZFTRAZ</t>
+  </si>
+  <si>
+    <t>SHT3GEQ</t>
+  </si>
+  <si>
+    <t>2S3C3XQ</t>
+  </si>
+  <si>
+    <t>95Z4YZ9</t>
+  </si>
+  <si>
+    <t>MG9FMYX</t>
+  </si>
+  <si>
+    <t>NBQQRNS</t>
+  </si>
+  <si>
+    <t>2Q3SEWW</t>
+  </si>
+  <si>
+    <t>ZABG82Q</t>
+  </si>
+  <si>
+    <t>PKZHQFZ</t>
+  </si>
+  <si>
+    <t>SFNTBRK</t>
+  </si>
+  <si>
+    <t>EXCHZMF</t>
+  </si>
+  <si>
+    <t>D5928YY</t>
+  </si>
+  <si>
+    <t>HWE4ZXH</t>
+  </si>
+  <si>
+    <t>5KDB3RD</t>
+  </si>
+  <si>
+    <t>MHB2A8F</t>
+  </si>
+  <si>
+    <t>FB9WRX5</t>
+  </si>
+  <si>
+    <t>CHR2HT3</t>
+  </si>
+  <si>
+    <t>YWDPPPW</t>
+  </si>
+  <si>
+    <t>MKS82P9</t>
+  </si>
+  <si>
+    <t>FZZ5SF4</t>
+  </si>
+  <si>
+    <t>T6EAFNT</t>
+  </si>
+  <si>
+    <t>N3AE6KY</t>
+  </si>
+  <si>
+    <t>4SZWBEW</t>
+  </si>
+  <si>
+    <t>6R9H258</t>
+  </si>
+  <si>
+    <t>YECCC4C</t>
+  </si>
+  <si>
+    <t>K9RK5BZ</t>
+  </si>
+  <si>
+    <t>E8Y2RFQ</t>
+  </si>
+  <si>
+    <t>48ET4QS</t>
+  </si>
+  <si>
+    <t>6RNG88B</t>
+  </si>
+  <si>
+    <t>M5QDMSS</t>
+  </si>
+  <si>
+    <t>A5CX242</t>
+  </si>
+  <si>
+    <t>WW36S23</t>
+  </si>
+  <si>
+    <t>AE4C8QX</t>
+  </si>
+  <si>
+    <t>KT4KSSA</t>
+  </si>
+  <si>
+    <t>RYSE6QS</t>
+  </si>
+  <si>
+    <t>QSYCEN3</t>
+  </si>
+  <si>
+    <t>8953HDN</t>
+  </si>
+  <si>
+    <t>P3TA5Q9</t>
+  </si>
+  <si>
+    <t>6KAS5S6</t>
+  </si>
+  <si>
+    <t>F3YW4TF</t>
+  </si>
+  <si>
+    <t>Z38A6NY</t>
+  </si>
+  <si>
+    <t>ZA9H3R5</t>
+  </si>
+  <si>
+    <t>3Z52GBH</t>
+  </si>
+  <si>
+    <t>YGGYHF8</t>
+  </si>
+  <si>
+    <t>BPCE8Z5</t>
+  </si>
+  <si>
+    <t>3WN6B9R</t>
+  </si>
+  <si>
+    <t>8N3BWKN</t>
+  </si>
+  <si>
+    <t>QA4DRF3</t>
+  </si>
+  <si>
+    <t>N6Q6F6N</t>
+  </si>
+  <si>
+    <t>9G335ZK</t>
+  </si>
+  <si>
+    <t>C596RFA</t>
+  </si>
+  <si>
+    <t>NBS5633</t>
+  </si>
+  <si>
+    <t>AZMYMZG</t>
+  </si>
+  <si>
+    <t>Q4EWEEC</t>
+  </si>
+  <si>
+    <t>AAC3342</t>
+  </si>
+  <si>
+    <t>4DP2WFS</t>
+  </si>
+  <si>
+    <t>E3PBPGM</t>
+  </si>
+  <si>
+    <t>EMN4DQ4</t>
+  </si>
+  <si>
+    <t>ATPMQBA</t>
+  </si>
+  <si>
+    <t>W8BHE3Z</t>
+  </si>
+  <si>
+    <t>YM9FCBB</t>
+  </si>
+  <si>
+    <t>E3Z5BF2</t>
+  </si>
+  <si>
+    <t>N32KBZ5</t>
+  </si>
+  <si>
+    <t>PN9236H</t>
+  </si>
+  <si>
+    <t>EKXXB6W</t>
+  </si>
+  <si>
+    <t>QKEPSC9</t>
+  </si>
+  <si>
+    <t>GYQWYAB</t>
+  </si>
+  <si>
+    <t>9B3G9AR</t>
+  </si>
+  <si>
+    <t>3DKF49R</t>
+  </si>
+  <si>
+    <t>33622DH</t>
+  </si>
+  <si>
+    <t>SH3G9FS</t>
+  </si>
+  <si>
+    <t>BASHRGG</t>
+  </si>
+  <si>
+    <t>3ZHQ484</t>
+  </si>
+  <si>
+    <t>WYRT84T</t>
+  </si>
+  <si>
+    <t>W4FHG5G</t>
+  </si>
+  <si>
+    <t>SMG95MY</t>
+  </si>
+  <si>
+    <t>32GNDSZ</t>
+  </si>
+  <si>
+    <t>85YNBT5</t>
+  </si>
+  <si>
+    <t>5AQ6K9P</t>
+  </si>
+  <si>
+    <t>FHSAP69</t>
+  </si>
+  <si>
+    <t>TQXHWZ5</t>
+  </si>
+  <si>
+    <t>G8B8XAN</t>
+  </si>
+  <si>
+    <t>6T4XYQR</t>
+  </si>
+  <si>
+    <t>BBCZTY2</t>
+  </si>
+  <si>
+    <t>Y3K6CC5</t>
+  </si>
+  <si>
+    <t>Q9G6WGT</t>
+  </si>
+  <si>
+    <t>8FNDNSE</t>
+  </si>
+  <si>
+    <t>DTHG9DB</t>
+  </si>
+  <si>
+    <t>9DMKE6Z</t>
+  </si>
+  <si>
+    <t>M6TDF92</t>
+  </si>
+  <si>
+    <t>WWECSP4</t>
+  </si>
+  <si>
+    <t>853FCNN</t>
+  </si>
+  <si>
+    <t>CH9C22D</t>
+  </si>
+  <si>
+    <t>CC8WGPS</t>
+  </si>
+  <si>
+    <t>X9ZNWXQ</t>
+  </si>
+  <si>
+    <t>HXD6S43</t>
+  </si>
+  <si>
+    <t>WKZ5EZ9</t>
+  </si>
+  <si>
+    <t>H9XMXQA</t>
+  </si>
+  <si>
+    <t>P2B9TBD</t>
+  </si>
+  <si>
+    <t>CATZPQT</t>
+  </si>
+  <si>
+    <t>9KFNCBF</t>
+  </si>
+  <si>
+    <t>DSD326X</t>
+  </si>
+  <si>
+    <t>2ZTZ8TW</t>
+  </si>
+  <si>
+    <t>CS23MXQ</t>
+  </si>
+  <si>
+    <t>S8RF2NR</t>
+  </si>
+  <si>
+    <t>HZGR6W3</t>
+  </si>
+  <si>
+    <t>NSWPRD8</t>
+  </si>
+  <si>
+    <t>8SMBHN6</t>
+  </si>
+  <si>
+    <t>GTFFWW5</t>
+  </si>
+  <si>
+    <t>F4BZQBK</t>
+  </si>
+  <si>
+    <t>S5PCR3M</t>
+  </si>
+  <si>
+    <t>FMH8D2D</t>
+  </si>
+  <si>
+    <t>6YTYGH4</t>
+  </si>
+  <si>
+    <t>ZZNYS6N</t>
+  </si>
+  <si>
+    <t>9WS4D4X</t>
+  </si>
+  <si>
+    <t>AKAYG3N</t>
+  </si>
+  <si>
+    <t>WAH3BDP</t>
+  </si>
+  <si>
+    <t>93ZN4B5</t>
+  </si>
+  <si>
+    <t>HSRCG4Q</t>
+  </si>
+  <si>
+    <t>H5S9PZ2</t>
+  </si>
+  <si>
+    <t>4EX9HB4</t>
+  </si>
+  <si>
+    <t>WBGSZPB</t>
+  </si>
+  <si>
+    <t>QE3KS3H</t>
+  </si>
+  <si>
+    <t>NYK5Y2S</t>
+  </si>
+  <si>
+    <t>MXQ959Q</t>
+  </si>
+  <si>
+    <t>QAM62YM</t>
+  </si>
+  <si>
+    <t>6NQFTM9</t>
+  </si>
+  <si>
+    <t>PM6QBPX</t>
+  </si>
+  <si>
+    <t>NENSWYQ</t>
+  </si>
+  <si>
+    <t>HWQ6XTB</t>
+  </si>
+  <si>
+    <t>8ABG6KC</t>
+  </si>
+  <si>
+    <t>PWBHXX5</t>
+  </si>
+  <si>
+    <t>RDH4CQR</t>
+  </si>
+  <si>
+    <t>GDPNHPE</t>
+  </si>
+  <si>
+    <t>4M9DBED</t>
+  </si>
+  <si>
+    <t>TTN4BM8</t>
+  </si>
+  <si>
+    <t>YERMWPY</t>
+  </si>
+  <si>
+    <t>8HDY4KC</t>
+  </si>
+  <si>
+    <t>S9QZ6EY</t>
+  </si>
+  <si>
+    <t>SA5XXNA</t>
+  </si>
+  <si>
+    <t>S3WSTAR</t>
+  </si>
+  <si>
+    <t>3EX6ZHS</t>
+  </si>
+  <si>
+    <t>N9DMBKS</t>
+  </si>
+  <si>
+    <t>6XG2CP5</t>
+  </si>
+  <si>
+    <t>2XARNZP</t>
+  </si>
+  <si>
+    <t>C262TMG</t>
+  </si>
+  <si>
+    <t>82YQYKR</t>
+  </si>
+  <si>
+    <t>Y533EKH</t>
+  </si>
+  <si>
+    <t>ZHHE36B</t>
+  </si>
+  <si>
+    <t>N6D6S3T</t>
+  </si>
+  <si>
+    <t>YXTBZKM</t>
+  </si>
+  <si>
+    <t>N3FWKC5</t>
+  </si>
+  <si>
+    <t>Y9NM2WZ</t>
+  </si>
+  <si>
+    <t>WRRPEC5</t>
+  </si>
+  <si>
+    <t>6EWE86B</t>
+  </si>
+  <si>
+    <t>YXKKRAB</t>
+  </si>
+  <si>
+    <t>TCN4GEB</t>
+  </si>
+  <si>
+    <t>ZR8Y4ZT</t>
+  </si>
+  <si>
+    <t>YYB9RMC</t>
+  </si>
+  <si>
+    <t>ZZQSZF5</t>
+  </si>
+  <si>
+    <t>BR2YR5H</t>
+  </si>
+  <si>
+    <t>R5RFMTS</t>
+  </si>
+  <si>
+    <t>8H5ATYT</t>
+  </si>
+  <si>
+    <t>6Q4CM24</t>
+  </si>
+  <si>
+    <t>QYYBCG2</t>
+  </si>
+  <si>
+    <t>8XCPZCD</t>
+  </si>
+  <si>
+    <t>PG5RMRG</t>
+  </si>
+  <si>
+    <t>DRQRXR3</t>
+  </si>
+  <si>
+    <t>Y6M3PKE</t>
+  </si>
+  <si>
+    <t>SCY2WZZ</t>
+  </si>
+  <si>
+    <t>3ZKWEGR</t>
+  </si>
+  <si>
+    <t>SPESK85</t>
+  </si>
+  <si>
+    <t>Z34ADBS</t>
+  </si>
+  <si>
+    <t>AETRFYH</t>
+  </si>
+  <si>
+    <t>NQSQZF2</t>
+  </si>
+  <si>
+    <t>CSX4ZK5</t>
+  </si>
+  <si>
+    <t>E4KFPPH</t>
+  </si>
+  <si>
+    <t>XT2GW8Z</t>
+  </si>
+  <si>
+    <t>CDANEDH</t>
+  </si>
+  <si>
+    <t>EWARSZK</t>
+  </si>
+  <si>
+    <t>B596GCF</t>
+  </si>
+  <si>
+    <t>DMBDMEY</t>
+  </si>
+  <si>
+    <t>HGDF6BF</t>
+  </si>
+  <si>
+    <t>M3HG2FS</t>
+  </si>
+  <si>
+    <t>WHABDER</t>
+  </si>
+  <si>
+    <t>5Z598HQ</t>
+  </si>
+  <si>
+    <t>8PKB5KQ</t>
+  </si>
+  <si>
+    <t>QS25RDX</t>
+  </si>
+  <si>
+    <t>2GHKA9P</t>
+  </si>
+  <si>
+    <t>923DTF3</t>
+  </si>
+  <si>
+    <t>MZBXRPW</t>
+  </si>
+  <si>
+    <t>PW66ZZW</t>
+  </si>
+  <si>
+    <t>4553FCE</t>
+  </si>
+  <si>
+    <t>E6ZXRQ2</t>
+  </si>
+  <si>
+    <t>EDG2SFS</t>
+  </si>
+  <si>
+    <t>2MG5MWE</t>
+  </si>
+  <si>
+    <t>BGERKXW</t>
+  </si>
+  <si>
+    <t>Y5SZQES</t>
+  </si>
+  <si>
+    <t>TEZ8X5E</t>
+  </si>
+  <si>
+    <t>R6SBKK6</t>
+  </si>
+  <si>
+    <t>Y6R94BZ</t>
+  </si>
+  <si>
+    <t>BRSTG3P</t>
+  </si>
+  <si>
+    <t>XPA3DDW</t>
+  </si>
+  <si>
+    <t>HA3DDP8</t>
+  </si>
+  <si>
+    <t>KPFQ5NM</t>
+  </si>
+  <si>
+    <t>MNHWZ6M</t>
+  </si>
+  <si>
+    <t>C8GZP4E</t>
+  </si>
+  <si>
+    <t>N5P3KSF</t>
+  </si>
+  <si>
+    <t>EG4DQPA</t>
+  </si>
+  <si>
+    <t>QKX6B32</t>
+  </si>
+  <si>
+    <t>5TY5MDE</t>
+  </si>
+  <si>
+    <t>8ZZ3D2N</t>
+  </si>
+  <si>
+    <t>CZSFXTY</t>
+  </si>
+  <si>
+    <t>QA35DE4</t>
+  </si>
+  <si>
+    <t>XQN4E2S</t>
+  </si>
+  <si>
+    <t>5XTW65Q</t>
+  </si>
+  <si>
+    <t>RNXZXGQ</t>
+  </si>
+  <si>
+    <t>FX9PAHK</t>
+  </si>
+  <si>
+    <t>NQBF6PM</t>
+  </si>
+  <si>
+    <t>DQS9BER</t>
+  </si>
+  <si>
+    <t>NC9KXSX</t>
+  </si>
+  <si>
+    <t>Z8B2QQW</t>
+  </si>
+  <si>
+    <t>MXSWKAB</t>
+  </si>
+  <si>
+    <t>59F4B5Q</t>
+  </si>
+  <si>
+    <t>FZ9EHQ6</t>
+  </si>
+  <si>
+    <t>F4TG9WX</t>
+  </si>
+  <si>
+    <t>WQQA892</t>
+  </si>
+  <si>
+    <t>KNRDRP3</t>
+  </si>
+  <si>
+    <t>2B5HQB8</t>
+  </si>
+  <si>
+    <t>3R6A4DW</t>
+  </si>
+  <si>
+    <t>Q6W53YT</t>
+  </si>
+  <si>
+    <t>APFETTX</t>
+  </si>
+  <si>
+    <t>S2SS3AM</t>
+  </si>
+  <si>
+    <t>4FPNCRG</t>
+  </si>
+  <si>
+    <t>ZDX4Q6R</t>
+  </si>
+  <si>
+    <t>FPB8XX3</t>
+  </si>
+  <si>
+    <t>ECQTAAF</t>
+  </si>
+  <si>
+    <t>G9DR3ZY</t>
+  </si>
+  <si>
+    <t>PYM6NAC</t>
+  </si>
+  <si>
+    <t>ZXAGQ4F</t>
+  </si>
+  <si>
+    <t>SXSBFFF</t>
+  </si>
+  <si>
+    <t>3P4HN4X</t>
+  </si>
+  <si>
+    <t>WC45CTT</t>
+  </si>
+  <si>
+    <t>PXRRSS8</t>
+  </si>
+  <si>
+    <t>6BCN8KD</t>
+  </si>
+  <si>
+    <t>SPGQKT3</t>
+  </si>
+  <si>
+    <t>T8PGS5W</t>
+  </si>
+  <si>
+    <t>SAASPBK</t>
+  </si>
+  <si>
+    <t>DSY4H59</t>
+  </si>
+  <si>
+    <t>5GS9P5P</t>
+  </si>
+  <si>
+    <t>TDRG348</t>
+  </si>
+  <si>
+    <t>H5E6E42</t>
+  </si>
+  <si>
+    <t>WNX8BCW</t>
+  </si>
+  <si>
+    <t>NZXGKXQ</t>
+  </si>
+  <si>
+    <t>SGDTETD</t>
+  </si>
+  <si>
+    <t>HRCDF2H</t>
+  </si>
+  <si>
+    <t>NG6XZGH</t>
+  </si>
+  <si>
+    <t>HTTRSYM</t>
+  </si>
+  <si>
+    <t>6AEWBC9</t>
+  </si>
+  <si>
+    <t>Q9NERWE</t>
+  </si>
+  <si>
+    <t>Y569N5D</t>
+  </si>
+  <si>
+    <t>NGCHZYW</t>
+  </si>
+  <si>
+    <t>6TE3BRN</t>
+  </si>
+  <si>
+    <t>DZTQCH5</t>
+  </si>
+  <si>
+    <t>YTF45MS</t>
+  </si>
+  <si>
+    <t>N8GFAYN</t>
+  </si>
+  <si>
+    <t>XWGDXNS</t>
+  </si>
+  <si>
+    <t>RHK4PZ3</t>
+  </si>
+  <si>
+    <t>3Y53YHN</t>
+  </si>
+  <si>
+    <t>23HNBXF</t>
+  </si>
+  <si>
+    <t>645XZQ9</t>
+  </si>
+  <si>
+    <t>SNY4BG5</t>
+  </si>
+  <si>
+    <t>PGNXNBN</t>
+  </si>
+  <si>
+    <t>8WDD8HP</t>
+  </si>
+  <si>
+    <t>4NPA8KE</t>
+  </si>
+  <si>
+    <t>95ZPR59</t>
+  </si>
+  <si>
+    <t>CDB83XN</t>
+  </si>
+  <si>
+    <t>FPD8N2M</t>
+  </si>
+  <si>
+    <t>5TZEZK2</t>
+  </si>
+  <si>
+    <t>5WWDCWS</t>
+  </si>
+  <si>
+    <t>2DRCFK9</t>
+  </si>
+  <si>
+    <t>4BW659H</t>
   </si>
 </sst>
 </file>
@@ -15340,4 +17018,2271 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2391</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2394</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2212</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2213</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2398</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2219</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2399</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2311</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2401</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2402</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2314</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2403</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2224</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2404</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2405</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2317</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2406</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2407</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2319</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2408</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2409</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2321</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2410</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2412</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2413</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2414</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2415</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2416</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2418</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2419</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2420</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2332</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2422</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2333</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2423</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2424</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2425</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2336</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2427</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2247</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2248</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2428</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2337</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2339</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2429</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2430</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2341</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2431</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2253</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2342</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2432</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2433</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2344</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2434</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2258</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2435</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2258</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2436</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2348</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2438</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2260</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2439</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F60" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F61" t="s">
+        <v>2441</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2263</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2442</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2265</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F65" t="s">
+        <v>2445</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F66" t="s">
+        <v>2446</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F67" t="s">
+        <v>2447</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2448</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2359</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2449</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F70" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F71" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F72" t="s">
+        <v>2452</v>
+      </c>
+      <c r="G72" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2453</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2454</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2365</v>
+      </c>
+      <c r="F75" t="s">
+        <v>2455</v>
+      </c>
+      <c r="G75" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2366</v>
+      </c>
+      <c r="F76" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F77" t="s">
+        <v>2456</v>
+      </c>
+      <c r="G77" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2184</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2457</v>
+      </c>
+      <c r="G78" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2370</v>
+      </c>
+      <c r="F80" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F81" t="s">
+        <v>2459</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2372</v>
+      </c>
+      <c r="F82" t="s">
+        <v>2460</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2189</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2461</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2462</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2463</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F86" t="s">
+        <v>2464</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F87" t="s">
+        <v>2465</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2378</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2466</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2467</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F90" t="s">
+        <v>2468</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2292</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F91" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2469</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2382</v>
+      </c>
+      <c r="F93" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F94" t="s">
+        <v>2471</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F95" t="s">
+        <v>2472</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2202</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F96" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F97" t="s">
+        <v>2474</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F98" t="s">
+        <v>2475</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>